--- a/3D_Kossel_Hardware_BOM.xlsx
+++ b/3D_Kossel_Hardware_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Item</t>
   </si>
@@ -63,27 +63,12 @@
     <t>Tie Rod n Ball Joint Pack Set (12pcs)</t>
   </si>
   <si>
-    <t>http://www.robotdigg.com/product/246/MGN9-L350-Linear-Rail-w/-MGN9H-Carriage</t>
-  </si>
-  <si>
-    <t>MGN9 L350 Linear Rail w/ MGN9H Carriage (3pcs)</t>
-  </si>
-  <si>
-    <t>Tr8*4 400mm Leadscrew Threaded Stepper</t>
-  </si>
-  <si>
-    <t>http://www.robotdigg.com/product/245/Tr8*4-400mm-Leadscrew-Threaded-Stepper</t>
-  </si>
-  <si>
     <t>Sum Per Kit</t>
   </si>
   <si>
     <t>Number Of Kits</t>
   </si>
   <si>
-    <t>M3/M4/M5 bolts ???</t>
-  </si>
-  <si>
     <t>http://www.robotdigg.com/product/93/ID-2mm,-OD-3mm-PTFE-Tube-2-Meters</t>
   </si>
   <si>
@@ -105,22 +90,118 @@
     <t>Optical Endstops w/ Lead Wires for 3D Printers</t>
   </si>
   <si>
-    <t>http://www.amazon.com/eTopLED-Single-Output-Switching-Low-cost/dp/B004OWUP5U</t>
-  </si>
-  <si>
-    <t>eTopLED 12v 15A Single Output Switching Low-cost Power Supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mechanical Endstop </t>
-  </si>
-  <si>
     <t>PTFE Tube 2mm ID, 3mm OD, 2M</t>
   </si>
   <si>
-    <t>Extrusion Stepper ???</t>
-  </si>
-  <si>
     <t>Post Assembly T Nuts for 2020 Aluminum Extrustion (100pcs)</t>
+  </si>
+  <si>
+    <t>Weight (KG)</t>
+  </si>
+  <si>
+    <t>Anti-backlash Nut for TR8.8 Leadscrew</t>
+  </si>
+  <si>
+    <t>http://www.robotdigg.com/product/18/Anti-backlash-Nut-for-Tr8*8-Leadscrew</t>
+  </si>
+  <si>
+    <t>Microswitch Boards w/ lead Wires for 3D Printers</t>
+  </si>
+  <si>
+    <t>MK7 Stainless Steel Thermal Barrier Tube-NEW</t>
+  </si>
+  <si>
+    <t>http://www.robotdigg.com/product/34/-MK7-Stainless-Steel-Thermal-Barrier-Tube-NEW</t>
+  </si>
+  <si>
+    <t>http://www.robotdigg.com/product/46/3/8-inches-9.5mm-Steel-Balls</t>
+  </si>
+  <si>
+    <t>3/8 inches 9.5mm Steel Balls</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>TRS008</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S0004</t>
+  </si>
+  <si>
+    <t>DR005</t>
+  </si>
+  <si>
+    <t>http://www.robotdigg.com/product/164/China-Made-MGN-12H-L400-hardened-Steel-Rail-and-Carriage-for-Kossel</t>
+  </si>
+  <si>
+    <t>China Made MGN-12H L400 hardened Steel Rail and Carriage for Kossel</t>
+  </si>
+  <si>
+    <t>DR001</t>
+  </si>
+  <si>
+    <t>DR009</t>
+  </si>
+  <si>
+    <t>DR015</t>
+  </si>
+  <si>
+    <t>DR007</t>
+  </si>
+  <si>
+    <t>DR016</t>
+  </si>
+  <si>
+    <t>DR013</t>
+  </si>
+  <si>
+    <t>DR011</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>E002</t>
+  </si>
+  <si>
+    <t>http://www.robotdigg.com/product/154/Microswitch-Board-w/-Lead-Wires-for-3D-Printers</t>
+  </si>
+  <si>
+    <t>http://www.robotdigg.com/product/227/500mm-Tr8*8-Lead-Screw-Threaded-Nema17-40mm-Stepper</t>
+  </si>
+  <si>
+    <t>Tr8*8 500mm Leadscrew Threaded Stepper</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/gp/product/B00DR8V8DA?ref_=pd_sim_sbs_hi_24&amp;refRID=0XMESA643Y4PXVJZ26C9&amp;pldnSite=1</t>
+  </si>
+  <si>
+    <t>M4-0.7 x 12mm (100pcs)</t>
+  </si>
+  <si>
+    <t>M4-0.7 x 25mm (100pcs)</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/gp/product/B00DD4UYQU?ref_=biss_dp_sa1&amp;pldnSite=1</t>
+  </si>
+  <si>
+    <t>8mm Spiral cable Wrap black or white  (10 meters)</t>
+  </si>
+  <si>
+    <t>http://www.robotdigg.com/product/196/8mm-spiral-cable-wrap-black-or-white</t>
+  </si>
+  <si>
+    <t>http://www.robotdigg.com/product/7/NEMA17-Stepper-Motor-40mm-Long,-1.2A</t>
+  </si>
+  <si>
+    <t>Extrusion Stepper ??? NEMA17 Stepper Motor 40mm Long, 1.2A</t>
+  </si>
+  <si>
+    <t>eTopLED 12v 15.5A Single Output Switching Low-cost Power Supply</t>
   </si>
 </sst>
 </file>
@@ -130,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +226,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -227,21 +329,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -275,11 +362,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,7 +411,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -297,15 +420,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,24 +437,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -625,309 +779,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="97.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="97.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="15" thickTop="1">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:8" ht="15" thickTop="1">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10</v>
+      </c>
+      <c r="E3" s="21">
+        <f>D3*C3</f>
+        <v>30</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>51</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" ref="E4:E17" si="0">D4*C4</f>
+        <v>153</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <f t="shared" ref="A5:A24" si="1">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8">
+      <c r="A6" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>36</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1">
+      <c r="A8" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1">
+      <c r="A9" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>58</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8">
+      <c r="A10" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>24</v>
-      </c>
-      <c r="E2" s="7">
-        <f>D2*C2</f>
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1">
-      <c r="A3" s="4">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="28.8">
+      <c r="A11" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1">
+      <c r="A12" s="3">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" ref="E3:E24" si="0">D3*C3</f>
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="4">
-        <f t="shared" ref="A4:A24" si="1">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
         <v>12.8</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E12" s="21">
         <f t="shared" si="0"/>
         <v>12.8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F12" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="28.8">
-      <c r="A5" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="13" spans="1:8" s="4" customFormat="1">
+      <c r="A13" s="3">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="B13" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="21">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1">
+      <c r="A14" s="3">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1">
-      <c r="A6" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="B14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>24</v>
+      </c>
+      <c r="E14" s="21">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1.85</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="28.8">
-      <c r="A7" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>51</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8">
-      <c r="A8" s="4">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="28.8">
-      <c r="A10" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8">
-      <c r="A12" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="B15" s="29" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8">
-      <c r="A15" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -935,21 +1178,27 @@
       <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>31</v>
+      <c r="F15" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -957,156 +1206,238 @@
       <c r="D16" s="2">
         <v>1.8</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="21">
         <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.8">
-      <c r="A17" s="4">
+      <c r="F16" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8">
+      <c r="A17" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="33">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="E17" s="22">
+        <f t="shared" si="0"/>
+        <v>13.6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>14.95</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>14.95</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4">
-        <f t="shared" si="1"/>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E18" s="22">
+        <f>D18*C18</f>
+        <v>1.8</v>
+      </c>
+      <c r="H18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6.14</v>
+      </c>
+      <c r="E19" s="22">
+        <f>D19*C19</f>
+        <v>6.14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="E20" s="31">
+        <f>D20*C20</f>
+        <v>6.6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8">
+      <c r="A21" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>19.79</v>
+      </c>
+      <c r="E21" s="22">
+        <f>D21*C21</f>
+        <v>19.79</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="31">
+        <f>D22*C22</f>
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="22">
+        <f t="shared" ref="E23" si="2">D23*C23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4">
-        <f>A21+1</f>
-        <v>21</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4">
+    <row r="24" spans="1:8">
+      <c r="A24" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1"/>
-    <row r="26" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="10">
-        <f>SUM(E1:E25)</f>
-        <v>314.45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickTop="1"/>
-    <row r="28" spans="1:6">
-      <c r="A28" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1"/>
-    <row r="30" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A30" s="12" t="s">
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1">
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="8">
+        <f>SUM(E1:E28)</f>
+        <v>403.43000000000006</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickTop="1">
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="24">
+        <v>1</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1">
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="10">
-        <f>E26*E28</f>
-        <v>314.45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickTop="1"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="8">
+        <f>E29*E31</f>
+        <v>403.43000000000006</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A28:D28"/>
+  <mergeCells count="4">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H21" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
